--- a/data/142/STANOR/10947 Monetary aggregate M3 by financial instrument.xlsx
+++ b/data/142/STANOR/10947 Monetary aggregate M3 by financial instrument.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <x:si>
     <x:t>10947: Monetary aggregate M3 (NOK million), by contents and month</x:t>
   </x:si>
@@ -517,6 +517,18 @@
     <x:t>2021M10</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
     <x:t>Notes and coins</x:t>
   </x:si>
   <x:si>
@@ -550,13 +562,13 @@
     <x:t>-M3: In foreign exchange</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Notes and coins:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211130 08:00</x:t>
+    <x:t>20220328 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Transaction deposits:</x:t>
@@ -1038,22 +1050,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FK138"/>
+  <x:dimension ref="A1:FO138"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="39.970625" style="0" customWidth="1"/>
-    <x:col min="2" max="167" width="10.040625" style="0" customWidth="1"/>
+    <x:col min="1" max="171" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:167">
+    <x:row r="1" spans="1:171">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:167">
+    <x:row r="3" spans="1:171">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1552,10 +1563,22 @@
       <x:c r="FK3" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:167">
+      <x:c r="FL3" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="FM3" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="FN3" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="FO3" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:171">
       <x:c r="A4" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>45083</x:v>
@@ -2055,10 +2078,22 @@
       <x:c r="FK4" s="3" t="n">
         <x:v>36459</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:167">
+      <x:c r="FL4" s="3" t="n">
+        <x:v>36590</x:v>
+      </x:c>
+      <x:c r="FM4" s="3" t="n">
+        <x:v>37547</x:v>
+      </x:c>
+      <x:c r="FN4" s="3" t="n">
+        <x:v>36436</x:v>
+      </x:c>
+      <x:c r="FO4" s="3" t="n">
+        <x:v>36222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:171">
       <x:c r="A5" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
         <x:v>708563</x:v>
@@ -2526,7 +2561,7 @@
         <x:v>2448022</x:v>
       </x:c>
       <x:c r="FA5" s="3" t="n">
-        <x:v>2426178</x:v>
+        <x:v>2426193</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
         <x:v>2470675</x:v>
@@ -2553,15 +2588,27 @@
         <x:v>2639593</x:v>
       </x:c>
       <x:c r="FJ5" s="3" t="n">
-        <x:v>2669725</x:v>
+        <x:v>2668820</x:v>
       </x:c>
       <x:c r="FK5" s="3" t="n">
         <x:v>2645541</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:167">
+      <x:c r="FL5" s="3" t="n">
+        <x:v>2705960</x:v>
+      </x:c>
+      <x:c r="FM5" s="3" t="n">
+        <x:v>2686146</x:v>
+      </x:c>
+      <x:c r="FN5" s="3" t="n">
+        <x:v>2747955</x:v>
+      </x:c>
+      <x:c r="FO5" s="3" t="n">
+        <x:v>2693401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:171">
       <x:c r="A6" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B6" s="3" t="n">
         <x:v>753646</x:v>
@@ -3029,7 +3076,7 @@
         <x:v>2485640</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>2464471</x:v>
+        <x:v>2464486</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
         <x:v>2508099</x:v>
@@ -3056,15 +3103,27 @@
         <x:v>2676498</x:v>
       </x:c>
       <x:c r="FJ6" s="3" t="n">
-        <x:v>2707216</x:v>
+        <x:v>2706311</x:v>
       </x:c>
       <x:c r="FK6" s="3" t="n">
         <x:v>2682000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:167">
+      <x:c r="FL6" s="3" t="n">
+        <x:v>2742551</x:v>
+      </x:c>
+      <x:c r="FM6" s="3" t="n">
+        <x:v>2723693</x:v>
+      </x:c>
+      <x:c r="FN6" s="3" t="n">
+        <x:v>2784391</x:v>
+      </x:c>
+      <x:c r="FO6" s="3" t="n">
+        <x:v>2729623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:171">
       <x:c r="A7" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B7" s="3" t="n">
         <x:v>63391</x:v>
@@ -3564,10 +3623,22 @@
       <x:c r="FK7" s="3" t="n">
         <x:v>160806</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:167">
+      <x:c r="FL7" s="3" t="n">
+        <x:v>175976</x:v>
+      </x:c>
+      <x:c r="FM7" s="3" t="n">
+        <x:v>181173</x:v>
+      </x:c>
+      <x:c r="FN7" s="3" t="n">
+        <x:v>178142</x:v>
+      </x:c>
+      <x:c r="FO7" s="3" t="n">
+        <x:v>179391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:171">
       <x:c r="A8" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B8" s="3" t="n">
         <x:v>551239</x:v>
@@ -4062,15 +4133,27 @@
         <x:v>181181</x:v>
       </x:c>
       <x:c r="FJ8" s="3" t="n">
-        <x:v>176349</x:v>
+        <x:v>176225</x:v>
       </x:c>
       <x:c r="FK8" s="3" t="n">
         <x:v>185212</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:167">
+      <x:c r="FL8" s="3" t="n">
+        <x:v>184743</x:v>
+      </x:c>
+      <x:c r="FM8" s="3" t="n">
+        <x:v>184200</x:v>
+      </x:c>
+      <x:c r="FN8" s="3" t="n">
+        <x:v>185476</x:v>
+      </x:c>
+      <x:c r="FO8" s="3" t="n">
+        <x:v>188024</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:171">
       <x:c r="A9" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B9" s="3" t="n">
         <x:v>1304885</x:v>
@@ -4538,7 +4621,7 @@
         <x:v>2656132</x:v>
       </x:c>
       <x:c r="FA9" s="3" t="n">
-        <x:v>2632310</x:v>
+        <x:v>2632325</x:v>
       </x:c>
       <x:c r="FB9" s="3" t="n">
         <x:v>2675672</x:v>
@@ -4565,15 +4648,27 @@
         <x:v>2857680</x:v>
       </x:c>
       <x:c r="FJ9" s="3" t="n">
-        <x:v>2883565</x:v>
+        <x:v>2882536</x:v>
       </x:c>
       <x:c r="FK9" s="3" t="n">
         <x:v>2867212</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:167">
+      <x:c r="FL9" s="3" t="n">
+        <x:v>2927293</x:v>
+      </x:c>
+      <x:c r="FM9" s="3" t="n">
+        <x:v>2907893</x:v>
+      </x:c>
+      <x:c r="FN9" s="3" t="n">
+        <x:v>2969868</x:v>
+      </x:c>
+      <x:c r="FO9" s="3" t="n">
+        <x:v>2917647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:171">
       <x:c r="A10" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B10" s="3" t="n">
         <x:v>80200</x:v>
@@ -5073,10 +5168,22 @@
       <x:c r="FK10" s="3" t="n">
         <x:v>164795</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:167">
+      <x:c r="FL10" s="3" t="n">
+        <x:v>178178</x:v>
+      </x:c>
+      <x:c r="FM10" s="3" t="n">
+        <x:v>191582</x:v>
+      </x:c>
+      <x:c r="FN10" s="3" t="n">
+        <x:v>188053</x:v>
+      </x:c>
+      <x:c r="FO10" s="3" t="n">
+        <x:v>189731</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:171">
       <x:c r="A11" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B11" s="3" t="n">
         <x:v>51535</x:v>
@@ -5576,10 +5683,22 @@
       <x:c r="FK11" s="3" t="n">
         <x:v>3428</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:167">
+      <x:c r="FL11" s="3" t="n">
+        <x:v>3090</x:v>
+      </x:c>
+      <x:c r="FM11" s="3" t="n">
+        <x:v>1598</x:v>
+      </x:c>
+      <x:c r="FN11" s="3" t="n">
+        <x:v>1748</x:v>
+      </x:c>
+      <x:c r="FO11" s="3" t="n">
+        <x:v>1963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:171">
       <x:c r="A12" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B12" s="3" t="n">
         <x:v>1182</x:v>
@@ -6079,10 +6198,22 @@
       <x:c r="FK12" s="3" t="n">
         <x:v>500</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:167">
+      <x:c r="FL12" s="3" t="n">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="FM12" s="3" t="n">
+        <x:v>2238</x:v>
+      </x:c>
+      <x:c r="FN12" s="3" t="n">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="FO12" s="3" t="n">
+        <x:v>1981</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:171">
       <x:c r="A13" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B13" s="3" t="n">
         <x:v>1357602</x:v>
@@ -6550,7 +6681,7 @@
         <x:v>2657931</x:v>
       </x:c>
       <x:c r="FA13" s="3" t="n">
-        <x:v>2634875</x:v>
+        <x:v>2634890</x:v>
       </x:c>
       <x:c r="FB13" s="3" t="n">
         <x:v>2677712</x:v>
@@ -6577,15 +6708,27 @@
         <x:v>2866759</x:v>
       </x:c>
       <x:c r="FJ13" s="3" t="n">
-        <x:v>2889561</x:v>
+        <x:v>2888532</x:v>
       </x:c>
       <x:c r="FK13" s="3" t="n">
         <x:v>2871140</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:167">
+      <x:c r="FL13" s="3" t="n">
+        <x:v>2931142</x:v>
+      </x:c>
+      <x:c r="FM13" s="3" t="n">
+        <x:v>2911730</x:v>
+      </x:c>
+      <x:c r="FN13" s="3" t="n">
+        <x:v>2972712</x:v>
+      </x:c>
+      <x:c r="FO13" s="3" t="n">
+        <x:v>2921591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:171">
       <x:c r="A14" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B14" s="3" t="n">
         <x:v>80204</x:v>
@@ -7085,540 +7228,552 @@
       <x:c r="FK14" s="3" t="n">
         <x:v>165016</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:167">
+      <x:c r="FL14" s="3" t="n">
+        <x:v>178597</x:v>
+      </x:c>
+      <x:c r="FM14" s="3" t="n">
+        <x:v>192135</x:v>
+      </x:c>
+      <x:c r="FN14" s="3" t="n">
+        <x:v>188562</x:v>
+      </x:c>
+      <x:c r="FO14" s="3" t="n">
+        <x:v>190262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:171">
       <x:c r="A17" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:171">
+      <x:c r="A18" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:171">
+      <x:c r="A19" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:171">
+      <x:c r="A20" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:171">
+      <x:c r="A21" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:171">
+      <x:c r="A22" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:171">
+      <x:c r="A23" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:171">
+      <x:c r="A24" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:171">
+      <x:c r="A25" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:171">
+      <x:c r="A26" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:171">
+      <x:c r="A27" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:171">
+      <x:c r="A28" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:171">
+      <x:c r="A29" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:171">
+      <x:c r="A30" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:171">
+      <x:c r="A31" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:171">
+      <x:c r="A32" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:171">
+      <x:c r="A33" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:171">
+      <x:c r="A34" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:171">
+      <x:c r="A35" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:171">
+      <x:c r="A36" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:171">
+      <x:c r="A37" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:171">
+      <x:c r="A38" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:171">
+      <x:c r="A39" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:171">
+      <x:c r="A41" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:171">
+      <x:c r="A42" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:171">
+      <x:c r="A44" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:171">
+      <x:c r="A45" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:171">
+      <x:c r="A46" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:171">
+      <x:c r="A47" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:171">
+      <x:c r="A48" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:171">
+      <x:c r="A50" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:171">
+      <x:c r="A51" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:171">
+      <x:c r="A52" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:171">
+      <x:c r="A56" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:171">
+      <x:c r="A58" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:171">
+      <x:c r="A59" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:171">
+      <x:c r="A60" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:171">
+      <x:c r="A61" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:171">
+      <x:c r="A62" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:171">
+      <x:c r="A63" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:171">
+      <x:c r="A64" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:171">
+      <x:c r="A65" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:171">
+      <x:c r="A66" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:171">
+      <x:c r="A67" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:171">
+      <x:c r="A68" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:171">
+      <x:c r="A69" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:171">
+      <x:c r="A70" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:171">
+      <x:c r="A71" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:171">
+      <x:c r="A72" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:171">
+      <x:c r="A73" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:171">
+      <x:c r="A74" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:171">
+      <x:c r="A75" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:171">
+      <x:c r="A76" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:171">
+      <x:c r="A77" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:171">
+      <x:c r="A78" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:171">
+      <x:c r="A79" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:171">
+      <x:c r="A80" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:171">
+      <x:c r="A81" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:171">
+      <x:c r="A82" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:171">
+      <x:c r="A83" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:171">
+      <x:c r="A84" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:171">
+      <x:c r="A85" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:171">
+      <x:c r="A86" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:171">
+      <x:c r="A87" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:171">
+      <x:c r="A88" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:171">
+      <x:c r="A89" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:171">
+      <x:c r="A90" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:171">
+      <x:c r="A91" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:171">
+      <x:c r="A92" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:171">
+      <x:c r="A93" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:171">
+      <x:c r="A94" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:171">
+      <x:c r="A95" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:171">
+      <x:c r="A96" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:171">
+      <x:c r="A97" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:171">
+      <x:c r="A98" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:171">
+      <x:c r="A99" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:171">
+      <x:c r="A100" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:171">
+      <x:c r="A101" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:171">
+      <x:c r="A102" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:171">
+      <x:c r="A103" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:171">
+      <x:c r="A105" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:171">
+      <x:c r="A106" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:171">
+      <x:c r="A107" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:171">
+      <x:c r="A108" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:171">
+      <x:c r="A109" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:171">
+      <x:c r="A110" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:171">
+      <x:c r="A111" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:171">
+      <x:c r="A112" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:171">
+      <x:c r="A113" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:171">
+      <x:c r="A114" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:171">
+      <x:c r="A115" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:171">
+      <x:c r="A116" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:171">
+      <x:c r="A117" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:171">
+      <x:c r="A118" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:171">
+      <x:c r="A119" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:171">
+      <x:c r="A120" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:167">
-      <x:c r="A18" s="0" t="s">
+    <x:row r="121" spans="1:171">
+      <x:c r="A121" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:171">
+      <x:c r="A122" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:167">
-      <x:c r="A19" s="0" t="s">
+    <x:row r="123" spans="1:171">
+      <x:c r="A123" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:171">
+      <x:c r="A124" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:167">
-      <x:c r="A20" s="0" t="s">
+    <x:row r="125" spans="1:171">
+      <x:c r="A125" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:171">
+      <x:c r="A126" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:167">
-      <x:c r="A21" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:167">
-      <x:c r="A22" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:167">
-      <x:c r="A23" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:167">
-      <x:c r="A24" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:167">
-      <x:c r="A25" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:167">
-      <x:c r="A26" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:167">
-      <x:c r="A27" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:167">
-      <x:c r="A28" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:167">
-      <x:c r="A29" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:167">
-      <x:c r="A30" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:167">
-      <x:c r="A31" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:167">
-      <x:c r="A32" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:167">
-      <x:c r="A33" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:167">
-      <x:c r="A34" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:167">
-      <x:c r="A35" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:167">
-      <x:c r="A36" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:167">
-      <x:c r="A37" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:167">
-      <x:c r="A38" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:167">
-      <x:c r="A39" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:167">
-      <x:c r="A41" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:167">
-      <x:c r="A42" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:167">
-      <x:c r="A44" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:167">
-      <x:c r="A45" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:167">
-      <x:c r="A46" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:167">
-      <x:c r="A47" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:167">
-      <x:c r="A48" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:167">
-      <x:c r="A50" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:167">
-      <x:c r="A51" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:167">
-      <x:c r="A52" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:167">
-      <x:c r="A56" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:167">
-      <x:c r="A58" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:167">
-      <x:c r="A59" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:167">
-      <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:167">
-      <x:c r="A61" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:167">
-      <x:c r="A62" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:167">
-      <x:c r="A63" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:167">
-      <x:c r="A64" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:167">
-      <x:c r="A65" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:167">
-      <x:c r="A66" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:167">
-      <x:c r="A67" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:167">
-      <x:c r="A68" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:167">
-      <x:c r="A69" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:167">
-      <x:c r="A70" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:167">
-      <x:c r="A71" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:167">
-      <x:c r="A72" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:167">
-      <x:c r="A73" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:167">
-      <x:c r="A74" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:167">
-      <x:c r="A75" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:167">
-      <x:c r="A76" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:167">
-      <x:c r="A77" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:167">
-      <x:c r="A78" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:167">
-      <x:c r="A79" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:167">
-      <x:c r="A80" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:167">
-      <x:c r="A81" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:167">
-      <x:c r="A82" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:167">
-      <x:c r="A83" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:167">
-      <x:c r="A84" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:167">
-      <x:c r="A85" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:167">
-      <x:c r="A86" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:167">
-      <x:c r="A87" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:167">
-      <x:c r="A88" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:167">
-      <x:c r="A89" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:167">
-      <x:c r="A90" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:167">
-      <x:c r="A91" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:167">
-      <x:c r="A92" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:167">
-      <x:c r="A93" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:167">
-      <x:c r="A94" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:167">
-      <x:c r="A95" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:167">
-      <x:c r="A96" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:167">
-      <x:c r="A97" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:167">
-      <x:c r="A98" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:167">
-      <x:c r="A99" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:167">
-      <x:c r="A100" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:167">
-      <x:c r="A101" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:167">
-      <x:c r="A102" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:167">
-      <x:c r="A103" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:167">
-      <x:c r="A105" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:167">
-      <x:c r="A106" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:167">
-      <x:c r="A107" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:167">
-      <x:c r="A108" s="0" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:167">
-      <x:c r="A109" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:167">
-      <x:c r="A110" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:167">
-      <x:c r="A111" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:167">
-      <x:c r="A112" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:167">
-      <x:c r="A113" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:167">
-      <x:c r="A114" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="115" spans="1:167">
-      <x:c r="A115" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:167">
-      <x:c r="A116" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:167">
-      <x:c r="A117" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:167">
-      <x:c r="A118" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:167">
-      <x:c r="A119" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:167">
-      <x:c r="A120" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:167">
-      <x:c r="A121" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:167">
-      <x:c r="A122" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:167">
-      <x:c r="A123" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:167">
-      <x:c r="A124" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:167">
-      <x:c r="A125" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:167">
-      <x:c r="A126" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:167">
+    <x:row r="127" spans="1:171">
       <x:c r="A127" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:167">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:171">
       <x:c r="A134" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:167">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:171">
       <x:c r="A135" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:167">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:171">
       <x:c r="A137" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="138" spans="1:167">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:171">
       <x:c r="A138" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
